--- a/biology/Zoologie/Enchytraeidae/Enchytraeidae.xlsx
+++ b/biology/Zoologie/Enchytraeidae/Enchytraeidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Enchytraeidae sont une famille d'Annélides oligochètes.
 Ce sont des vers de terre translucides ou blancs, très petits voire minuscules, parfois presque invisibles.
@@ -513,12 +525,14 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Enchytraeidae sont relativement ubiquistes. Ils vivent notamment :
-dans les sols et milieux oligotrophes ou acides et riches en matière organique (tourbières acides, sols paratourbeux notamment), où, en tant que décomposeurs, ils suppléent les lombrics peu fréquents dans ces milieux[1]  ;
+dans les sols et milieux oligotrophes ou acides et riches en matière organique (tourbières acides, sols paratourbeux notamment), où, en tant que décomposeurs, ils suppléent les lombrics peu fréquents dans ces milieux  ;
 dans les eaux marines, le sable du littoral ou d'estuaires.
-Un cas particulier sont les vers du genre Mesenchytraeus (vers de glace) qui vivent dans les glaciers et meurent s'ils sont exposés à des températures  dépassant  de quelques degrés la température de congélation. D'autres espèces présentent des adaptations au froid (p. ex. Stercutus niveus qu'on trouve à des densités de plus de 1000 individus par mètre carré en plein hiver dans la litière forestière[2] et dont les fluides corporels enrichi en glycérol résistent à une température de -15 °C (surfusion)).
+Un cas particulier sont les vers du genre Mesenchytraeus (vers de glace) qui vivent dans les glaciers et meurent s'ils sont exposés à des températures  dépassant  de quelques degrés la température de congélation. D'autres espèces présentent des adaptations au froid (p. ex. Stercutus niveus qu'on trouve à des densités de plus de 1000 individus par mètre carré en plein hiver dans la litière forestière et dont les fluides corporels enrichi en glycérol résistent à une température de -15 °C (surfusion)).
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Ecotoxicologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme d'autres vers et organismes du sol, ils peuvent bioconcentrer certains toxiques (métaux lourds[3], plus facilement biodisponibles dans les sols acides et oligotrophes) et ainsi contribuer à la contamination du réseau trophique. Certaines espèces (p. ex. : Fridericia peregrinabunda), sensibles à la pollution du sol ont été proposées comme bioindicateur ou biotest de toxicité[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme d'autres vers et organismes du sol, ils peuvent bioconcentrer certains toxiques (métaux lourds, plus facilement biodisponibles dans les sols acides et oligotrophes) et ainsi contribuer à la contamination du réseau trophique. Certaines espèces (p. ex. : Fridericia peregrinabunda), sensibles à la pollution du sol ont été proposées comme bioindicateur ou biotest de toxicité.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (4 avr. 2011)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (4 avr. 2011) :
 genre Bryodrilus
 genre Buchholzia
 genre Cernosvitoviella
@@ -599,7 +617,7 @@
 genre Oconnorella
 genre Stephensoniella
 genre Stercutus
-Selon World Register of Marine Species                               (4 avr. 2011)[6] :
+Selon World Register of Marine Species                               (4 avr. 2011) :
 genre Achaeta Vejdovský, 1878
 genre Cernosvitoviella Nielsen &amp; Christensen, 1959
 genre Christensenidrilus Dózsa-Farkas &amp; Convey, 1998
@@ -618,7 +636,7 @@
 genre Randidrilus Coates &amp; Erséus, 1985
 genre Stephensoniella Cernosvitov, 1934
 genre Archienchytraeus Eisen, 1878
-Selon ITIS      (4 avr. 2011)[7] :
+Selon ITIS      (4 avr. 2011) :
 genre Achaeta Vejdovsky, 1877
 genre Analycus Levinsen, 1883
 genre Aspidodrilus Baylis, 1914
